--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.00683539768261</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H2">
-        <v>3.00683539768261</v>
+        <v>166.785322</v>
       </c>
       <c r="I2">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J2">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.620433531929524</v>
+        <v>0.7376096666666667</v>
       </c>
       <c r="N2">
-        <v>0.620433531929524</v>
+        <v>2.212829</v>
       </c>
       <c r="O2">
-        <v>0.09652575612495672</v>
+        <v>0.1014284037978316</v>
       </c>
       <c r="P2">
-        <v>0.09652575612495672</v>
+        <v>0.1014284037978316</v>
       </c>
       <c r="Q2">
-        <v>1.865541505714937</v>
+        <v>41.00748858843755</v>
       </c>
       <c r="R2">
-        <v>1.865541505714937</v>
+        <v>369.067397295938</v>
       </c>
       <c r="S2">
-        <v>0.004646969577591159</v>
+        <v>0.04602030925000299</v>
       </c>
       <c r="T2">
-        <v>0.004646969577591159</v>
+        <v>0.04602030925000298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.00683539768261</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H3">
-        <v>3.00683539768261</v>
+        <v>166.785322</v>
       </c>
       <c r="I3">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J3">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.8072139358235</v>
+        <v>0.6291593333333333</v>
       </c>
       <c r="N3">
-        <v>5.8072139358235</v>
+        <v>1.887478</v>
       </c>
       <c r="O3">
-        <v>0.9034742438750433</v>
+        <v>0.08651544278546762</v>
       </c>
       <c r="P3">
-        <v>0.9034742438750433</v>
+        <v>0.08651544278546762</v>
       </c>
       <c r="Q3">
-        <v>17.46133642414985</v>
+        <v>34.9781806664351</v>
       </c>
       <c r="R3">
-        <v>17.46133642414985</v>
+        <v>314.803625997916</v>
       </c>
       <c r="S3">
-        <v>0.04349530626819925</v>
+        <v>0.03925396913298639</v>
       </c>
       <c r="T3">
-        <v>0.04349530626819925</v>
+        <v>0.03925396913298638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.38463888208636</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H4">
-        <v>1.38463888208636</v>
+        <v>166.785322</v>
       </c>
       <c r="I4">
-        <v>0.02216937683372475</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J4">
-        <v>0.02216937683372475</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.620433531929524</v>
+        <v>0.07810833333333334</v>
       </c>
       <c r="N4">
-        <v>0.620433531929524</v>
+        <v>0.234325</v>
       </c>
       <c r="O4">
-        <v>0.09652575612495672</v>
+        <v>0.01074064499332162</v>
       </c>
       <c r="P4">
-        <v>0.09652575612495672</v>
+        <v>0.01074064499332162</v>
       </c>
       <c r="Q4">
-        <v>0.859076392059788</v>
+        <v>4.342441175294444</v>
       </c>
       <c r="R4">
-        <v>0.859076392059788</v>
+        <v>39.08197057765</v>
       </c>
       <c r="S4">
-        <v>0.00213991586169438</v>
+        <v>0.004873268094826555</v>
       </c>
       <c r="T4">
-        <v>0.00213991586169438</v>
+        <v>0.004873268094826554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.38463888208636</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H5">
-        <v>1.38463888208636</v>
+        <v>166.785322</v>
       </c>
       <c r="I5">
-        <v>0.02216937683372475</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J5">
-        <v>0.02216937683372475</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.8072139358235</v>
+        <v>5.827342666666667</v>
       </c>
       <c r="N5">
-        <v>5.8072139358235</v>
+        <v>17.482028</v>
       </c>
       <c r="O5">
-        <v>0.9034742438750433</v>
+        <v>0.8013155084233792</v>
       </c>
       <c r="P5">
-        <v>0.9034742438750433</v>
+        <v>0.8013155084233792</v>
       </c>
       <c r="Q5">
-        <v>8.040894212134983</v>
+        <v>323.9717410214462</v>
       </c>
       <c r="R5">
-        <v>8.040894212134983</v>
+        <v>2915.745669193016</v>
       </c>
       <c r="S5">
-        <v>0.02002946097203037</v>
+        <v>0.3635745621903957</v>
       </c>
       <c r="T5">
-        <v>0.02002946097203037</v>
+        <v>0.3635745621903956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.0289658110759</v>
+        <v>1.654659</v>
       </c>
       <c r="H6">
-        <v>55.0289658110759</v>
+        <v>4.963977</v>
       </c>
       <c r="I6">
-        <v>0.8810657389583608</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J6">
-        <v>0.8810657389583608</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.620433531929524</v>
+        <v>0.7376096666666667</v>
       </c>
       <c r="N6">
-        <v>0.620433531929524</v>
+        <v>2.212829</v>
       </c>
       <c r="O6">
-        <v>0.09652575612495672</v>
+        <v>0.1014284037978316</v>
       </c>
       <c r="P6">
-        <v>0.09652575612495672</v>
+        <v>0.1014284037978316</v>
       </c>
       <c r="Q6">
-        <v>34.14181561659484</v>
+        <v>1.220492473437</v>
       </c>
       <c r="R6">
-        <v>34.14181561659484</v>
+        <v>10.984432260933</v>
       </c>
       <c r="S6">
-        <v>0.08504553664874952</v>
+        <v>0.001369687415598251</v>
       </c>
       <c r="T6">
-        <v>0.08504553664874952</v>
+        <v>0.001369687415598251</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.0289658110759</v>
+        <v>1.654659</v>
       </c>
       <c r="H7">
-        <v>55.0289658110759</v>
+        <v>4.963977</v>
       </c>
       <c r="I7">
-        <v>0.8810657389583608</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J7">
-        <v>0.8810657389583608</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.8072139358235</v>
+        <v>0.6291593333333333</v>
       </c>
       <c r="N7">
-        <v>5.8072139358235</v>
+        <v>1.887478</v>
       </c>
       <c r="O7">
-        <v>0.9034742438750433</v>
+        <v>0.08651544278546762</v>
       </c>
       <c r="P7">
-        <v>0.9034742438750433</v>
+        <v>0.08651544278546762</v>
       </c>
       <c r="Q7">
-        <v>319.5649771320349</v>
+        <v>1.041044153334</v>
       </c>
       <c r="R7">
-        <v>319.5649771320349</v>
+        <v>9.369397380005999</v>
       </c>
       <c r="S7">
-        <v>0.7960202023096113</v>
+        <v>0.001168303047284067</v>
       </c>
       <c r="T7">
-        <v>0.7960202023096113</v>
+        <v>0.001168303047284067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.03683565810645</v>
+        <v>1.654659</v>
       </c>
       <c r="H8">
-        <v>3.03683565810645</v>
+        <v>4.963977</v>
       </c>
       <c r="I8">
-        <v>0.04862260836212409</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J8">
-        <v>0.04862260836212409</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.620433531929524</v>
+        <v>0.07810833333333334</v>
       </c>
       <c r="N8">
-        <v>0.620433531929524</v>
+        <v>0.234325</v>
       </c>
       <c r="O8">
-        <v>0.09652575612495672</v>
+        <v>0.01074064499332162</v>
       </c>
       <c r="P8">
-        <v>0.09652575612495672</v>
+        <v>0.01074064499332162</v>
       </c>
       <c r="Q8">
-        <v>1.884154673248505</v>
+        <v>0.129242656725</v>
       </c>
       <c r="R8">
-        <v>1.884154673248505</v>
+        <v>1.163183910525</v>
       </c>
       <c r="S8">
-        <v>0.004693334036921671</v>
+        <v>0.0001450414847509953</v>
       </c>
       <c r="T8">
-        <v>0.004693334036921671</v>
+        <v>0.0001450414847509953</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.03683565810645</v>
+        <v>1.654659</v>
       </c>
       <c r="H9">
-        <v>3.03683565810645</v>
+        <v>4.963977</v>
       </c>
       <c r="I9">
-        <v>0.04862260836212409</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J9">
-        <v>0.04862260836212409</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.8072139358235</v>
+        <v>5.827342666666667</v>
       </c>
       <c r="N9">
-        <v>5.8072139358235</v>
+        <v>17.482028</v>
       </c>
       <c r="O9">
-        <v>0.9034742438750433</v>
+        <v>0.8013155084233792</v>
       </c>
       <c r="P9">
-        <v>0.9034742438750433</v>
+        <v>0.8013155084233792</v>
       </c>
       <c r="Q9">
-        <v>17.63555435456151</v>
+        <v>9.642264989484</v>
       </c>
       <c r="R9">
-        <v>17.63555435456151</v>
+        <v>86.780384905356</v>
       </c>
       <c r="S9">
-        <v>0.04392927432520241</v>
+        <v>0.01082095080584006</v>
       </c>
       <c r="T9">
-        <v>0.04392927432520241</v>
+        <v>0.01082095080584006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>62.05924166666666</v>
+      </c>
+      <c r="H10">
+        <v>186.177725</v>
+      </c>
+      <c r="I10">
+        <v>0.5064771225734745</v>
+      </c>
+      <c r="J10">
+        <v>0.5064771225734744</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.7376096666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.212829</v>
+      </c>
+      <c r="O10">
+        <v>0.1014284037978316</v>
+      </c>
+      <c r="P10">
+        <v>0.1014284037978316</v>
+      </c>
+      <c r="Q10">
+        <v>45.7754965593361</v>
+      </c>
+      <c r="R10">
+        <v>411.979469034025</v>
+      </c>
+      <c r="S10">
+        <v>0.05137116610274622</v>
+      </c>
+      <c r="T10">
+        <v>0.0513711661027462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>62.05924166666666</v>
+      </c>
+      <c r="H11">
+        <v>186.177725</v>
+      </c>
+      <c r="I11">
+        <v>0.5064771225734745</v>
+      </c>
+      <c r="J11">
+        <v>0.5064771225734744</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6291593333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.887478</v>
+      </c>
+      <c r="O11">
+        <v>0.08651544278546762</v>
+      </c>
+      <c r="P11">
+        <v>0.08651544278546762</v>
+      </c>
+      <c r="Q11">
+        <v>39.04515111417221</v>
+      </c>
+      <c r="R11">
+        <v>351.40636002755</v>
+      </c>
+      <c r="S11">
+        <v>0.04381809252015371</v>
+      </c>
+      <c r="T11">
+        <v>0.0438180925201537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>62.05924166666666</v>
+      </c>
+      <c r="H12">
+        <v>186.177725</v>
+      </c>
+      <c r="I12">
+        <v>0.5064771225734745</v>
+      </c>
+      <c r="J12">
+        <v>0.5064771225734744</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.07810833333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.234325</v>
+      </c>
+      <c r="O12">
+        <v>0.01074064499332162</v>
+      </c>
+      <c r="P12">
+        <v>0.01074064499332162</v>
+      </c>
+      <c r="Q12">
+        <v>4.847343934513888</v>
+      </c>
+      <c r="R12">
+        <v>43.626095410625</v>
+      </c>
+      <c r="S12">
+        <v>0.005439890970800729</v>
+      </c>
+      <c r="T12">
+        <v>0.005439890970800728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>62.05924166666666</v>
+      </c>
+      <c r="H13">
+        <v>186.177725</v>
+      </c>
+      <c r="I13">
+        <v>0.5064771225734745</v>
+      </c>
+      <c r="J13">
+        <v>0.5064771225734744</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.827342666666667</v>
+      </c>
+      <c r="N13">
+        <v>17.482028</v>
+      </c>
+      <c r="O13">
+        <v>0.8013155084233792</v>
+      </c>
+      <c r="P13">
+        <v>0.8013155084233792</v>
+      </c>
+      <c r="Q13">
+        <v>361.6404668251444</v>
+      </c>
+      <c r="R13">
+        <v>3254.7642014263</v>
+      </c>
+      <c r="S13">
+        <v>0.4058479729797739</v>
+      </c>
+      <c r="T13">
+        <v>0.4058479729797738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.222176333333334</v>
+      </c>
+      <c r="H14">
+        <v>9.666529000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.02629678600484052</v>
+      </c>
+      <c r="J14">
+        <v>0.02629678600484052</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.7376096666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.212829</v>
+      </c>
+      <c r="O14">
+        <v>0.1014284037978316</v>
+      </c>
+      <c r="P14">
+        <v>0.1014284037978316</v>
+      </c>
+      <c r="Q14">
+        <v>2.376708411171223</v>
+      </c>
+      <c r="R14">
+        <v>21.390375700541</v>
+      </c>
+      <c r="S14">
+        <v>0.00266724102948413</v>
+      </c>
+      <c r="T14">
+        <v>0.00266724102948413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.222176333333334</v>
+      </c>
+      <c r="H15">
+        <v>9.666529000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.02629678600484052</v>
+      </c>
+      <c r="J15">
+        <v>0.02629678600484052</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6291593333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.887478</v>
+      </c>
+      <c r="O15">
+        <v>0.08651544278546762</v>
+      </c>
+      <c r="P15">
+        <v>0.08651544278546762</v>
+      </c>
+      <c r="Q15">
+        <v>2.027262313762444</v>
+      </c>
+      <c r="R15">
+        <v>18.245360823862</v>
+      </c>
+      <c r="S15">
+        <v>0.002275078085043466</v>
+      </c>
+      <c r="T15">
+        <v>0.002275078085043465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.222176333333334</v>
+      </c>
+      <c r="H16">
+        <v>9.666529000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.02629678600484052</v>
+      </c>
+      <c r="J16">
+        <v>0.02629678600484052</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07810833333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.234325</v>
+      </c>
+      <c r="O16">
+        <v>0.01074064499332162</v>
+      </c>
+      <c r="P16">
+        <v>0.01074064499332162</v>
+      </c>
+      <c r="Q16">
+        <v>0.2516788231027778</v>
+      </c>
+      <c r="R16">
+        <v>2.265109407925</v>
+      </c>
+      <c r="S16">
+        <v>0.0002824444429433403</v>
+      </c>
+      <c r="T16">
+        <v>0.0002824444429433403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.222176333333334</v>
+      </c>
+      <c r="H17">
+        <v>9.666529000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.02629678600484052</v>
+      </c>
+      <c r="J17">
+        <v>0.02629678600484052</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.827342666666667</v>
+      </c>
+      <c r="N17">
+        <v>17.482028</v>
+      </c>
+      <c r="O17">
+        <v>0.8013155084233792</v>
+      </c>
+      <c r="P17">
+        <v>0.8013155084233792</v>
+      </c>
+      <c r="Q17">
+        <v>18.77672562675689</v>
+      </c>
+      <c r="R17">
+        <v>168.990530640812</v>
+      </c>
+      <c r="S17">
+        <v>0.02107202244736958</v>
+      </c>
+      <c r="T17">
+        <v>0.02107202244736958</v>
       </c>
     </row>
   </sheetData>
